--- a/Michigan_Stats.xlsx
+++ b/Michigan_Stats.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rosleeb/MSDS/Decision_Analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084808A3-21F8-D047-90B6-3B5B2F02AFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2B376B-526C-E844-92F3-AF44F3F2D0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16460" xr2:uid="{A4FD471A-DC33-BF47-AFCC-5F98A6138F93}"/>
+    <workbookView xWindow="29660" yWindow="3520" windowWidth="28040" windowHeight="16460" xr2:uid="{A4FD471A-DC33-BF47-AFCC-5F98A6138F93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Wayne County</t>
   </si>
@@ -309,6 +309,12 @@
   </si>
   <si>
     <t>Full County</t>
+  </si>
+  <si>
+    <t>Republican</t>
+  </si>
+  <si>
+    <t>Democrat</t>
   </si>
 </sst>
 </file>
@@ -344,12 +350,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A89FD0F-6AAD-6F47-A19F-EF4F52A94F10}">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -696,7 +701,7 @@
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -721,8 +726,14 @@
       <c r="H1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -739,7 +750,7 @@
       <c r="E2" s="1">
         <v>236</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2">
         <v>2849</v>
       </c>
       <c r="G2">
@@ -748,8 +759,14 @@
       <c r="H2">
         <v>-83.282200000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <v>264553</v>
+      </c>
+      <c r="J2">
+        <v>597170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -766,7 +783,7 @@
       <c r="E3" s="1">
         <v>335</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3">
         <v>1465</v>
       </c>
       <c r="G3">
@@ -775,8 +792,14 @@
       <c r="H3">
         <v>-83.385800000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>325971</v>
+      </c>
+      <c r="J3">
+        <v>434148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -793,7 +816,7 @@
       <c r="E4" s="1">
         <v>185</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4">
         <v>1829</v>
       </c>
       <c r="G4">
@@ -802,8 +825,14 @@
       <c r="H4">
         <v>-82.932299999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>263863</v>
+      </c>
+      <c r="J4">
+        <v>223952</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -820,7 +849,7 @@
       <c r="E5" s="1">
         <v>328</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5">
         <v>782</v>
       </c>
       <c r="G5">
@@ -829,8 +858,14 @@
       <c r="H5">
         <v>-85.549300000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>165741</v>
+      </c>
+      <c r="J5">
+        <v>187915</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -847,7 +882,7 @@
       <c r="E6" s="1">
         <v>246</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6">
         <v>630</v>
       </c>
       <c r="G6">
@@ -856,8 +891,14 @@
       <c r="H6">
         <v>-83.706699999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>98714</v>
+      </c>
+      <c r="J6">
+        <v>119390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -874,7 +915,7 @@
       <c r="E7" s="1">
         <v>273</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7">
         <v>516</v>
       </c>
       <c r="G7">
@@ -883,8 +924,14 @@
       <c r="H7">
         <v>-83.838800000000006</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>56241</v>
+      </c>
+      <c r="J7">
+        <v>157136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -901,7 +948,7 @@
       <c r="E8" s="1">
         <v>218</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8">
         <v>542</v>
       </c>
       <c r="G8">
@@ -910,8 +957,14 @@
       <c r="H8">
         <v>-85.996099999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>100913</v>
+      </c>
+      <c r="J8">
+        <v>64705</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -928,7 +981,7 @@
       <c r="E9" s="1">
         <v>215</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9">
         <v>514</v>
       </c>
       <c r="G9">
@@ -937,8 +990,14 @@
       <c r="H9">
         <v>-84.373500000000007</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>47639</v>
+      </c>
+      <c r="J9">
+        <v>94212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -955,7 +1014,7 @@
       <c r="E10" s="1">
         <v>217</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10">
         <v>469</v>
       </c>
       <c r="G10">
@@ -964,8 +1023,14 @@
       <c r="H10">
         <v>-85.531199999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>56823</v>
+      </c>
+      <c r="J10">
+        <v>83686</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -982,7 +1047,7 @@
       <c r="E11" s="1">
         <v>218</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11">
         <v>349</v>
       </c>
       <c r="G11">
@@ -991,8 +1056,14 @@
       <c r="H11">
         <v>-83.911500000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>76982</v>
+      </c>
+      <c r="J11">
+        <v>48220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1009,7 +1080,7 @@
       <c r="E12" s="1">
         <v>309</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12">
         <v>234</v>
       </c>
       <c r="G12">
@@ -1018,8 +1089,14 @@
       <c r="H12">
         <v>-84.053200000000004</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>50785</v>
+      </c>
+      <c r="J12">
+        <v>51088</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1036,7 +1113,7 @@
       <c r="E13" s="1">
         <v>195</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13">
         <v>352</v>
       </c>
       <c r="G13">
@@ -1045,8 +1122,14 @@
       <c r="H13">
         <v>-86.152000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>45133</v>
+      </c>
+      <c r="J13">
+        <v>45643</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1072,8 +1155,14 @@
       <c r="H14">
         <v>-82.680599999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>59185</v>
+      </c>
+      <c r="J14">
+        <v>31363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1099,8 +1188,14 @@
       <c r="H15">
         <v>-84.423400000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>47372</v>
+      </c>
+      <c r="J15">
+        <v>31995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1126,8 +1221,14 @@
       <c r="H16">
         <v>-83.539400000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>52710</v>
+      </c>
+      <c r="J16">
+        <v>32975</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1153,8 +1254,14 @@
       <c r="H17">
         <v>-86.412300000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>43519</v>
+      </c>
+      <c r="J17">
+        <v>37438</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1180,8 +1287,14 @@
       <c r="H18">
         <v>-85.005600000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>36221</v>
+      </c>
+      <c r="J18">
+        <v>28877</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1207,8 +1320,14 @@
       <c r="H19">
         <v>-85.888400000000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>41392</v>
+      </c>
+      <c r="J19">
+        <v>24449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1234,8 +1353,14 @@
       <c r="H20">
         <v>-84.838300000000004</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>31798</v>
+      </c>
+      <c r="J20">
+        <v>31299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1261,8 +1386,14 @@
       <c r="H21">
         <v>-83.992199999999997</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>33125</v>
+      </c>
+      <c r="J21">
+        <v>26151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1288,8 +1419,14 @@
       <c r="H22">
         <v>-84.066400000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>31541</v>
+      </c>
+      <c r="J22">
+        <v>20918</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1315,8 +1452,14 @@
       <c r="H23">
         <v>-85.560500000000005</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>30502</v>
+      </c>
+      <c r="J23">
+        <v>28683</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1342,8 +1485,14 @@
       <c r="H24">
         <v>-83.221800000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>35482</v>
+      </c>
+      <c r="J24">
+        <v>16367</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1369,8 +1518,14 @@
       <c r="H25">
         <v>-84.388099999999994</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>27675</v>
+      </c>
+      <c r="J25">
+        <v>20493</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1396,8 +1551,14 @@
       <c r="H26">
         <v>-84.601500000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>25098</v>
+      </c>
+      <c r="J26">
+        <v>21968</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1423,8 +1584,14 @@
       <c r="H27">
         <v>-86.018900000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <v>21591</v>
+      </c>
+      <c r="J27">
+        <v>16803</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1450,8 +1617,14 @@
       <c r="H28">
         <v>-85.152500000000003</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <v>21815</v>
+      </c>
+      <c r="J28">
+        <v>9703</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1477,8 +1650,14 @@
       <c r="H29">
         <v>-84.146699999999996</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <v>23149</v>
+      </c>
+      <c r="J29">
+        <v>15347</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1504,8 +1683,14 @@
       <c r="H30">
         <v>-87.641599999999997</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <v>16286</v>
+      </c>
+      <c r="J30">
+        <v>20465</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1531,8 +1716,14 @@
       <c r="H31">
         <v>-85.074600000000004</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <v>20657</v>
+      </c>
+      <c r="J31">
+        <v>10901</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1558,8 +1749,14 @@
       <c r="H32">
         <v>-85.308999999999997</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <v>23471</v>
+      </c>
+      <c r="J32">
+        <v>11797</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1585,8 +1782,14 @@
       <c r="H33">
         <v>-84.846800000000002</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>14815</v>
+      </c>
+      <c r="J33">
+        <v>14072</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1612,8 +1815,14 @@
       <c r="H34">
         <v>-85.527799999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>18127</v>
+      </c>
+      <c r="J34">
+        <v>9262</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1639,8 +1848,14 @@
       <c r="H35">
         <v>-83.416700000000006</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>20297</v>
+      </c>
+      <c r="J35">
+        <v>8712</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1666,8 +1881,14 @@
       <c r="H36">
         <v>-85.993499999999997</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <v>16699</v>
+      </c>
+      <c r="J36">
+        <v>9130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1693,8 +1914,14 @@
       <c r="H37">
         <v>-85.800899999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <v>18857</v>
+      </c>
+      <c r="J37">
+        <v>7873</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1720,8 +1947,14 @@
       <c r="H38">
         <v>-85.058999999999997</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <v>14064</v>
+      </c>
+      <c r="J38">
+        <v>6159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1747,8 +1980,14 @@
       <c r="H39">
         <v>-84.5929</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <v>17037</v>
+      </c>
+      <c r="J39">
+        <v>5883</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1774,8 +2013,14 @@
       <c r="H40">
         <v>-84.604900000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <v>12102</v>
+      </c>
+      <c r="J40">
+        <v>6693</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1801,8 +2046,14 @@
       <c r="H41">
         <v>-85.324600000000004</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <v>13267</v>
+      </c>
+      <c r="J41">
+        <v>7375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1828,8 +2079,14 @@
       <c r="H42">
         <v>-82.8202</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <v>16194</v>
+      </c>
+      <c r="J42">
+        <v>5966</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1855,8 +2112,14 @@
       <c r="H43">
         <v>-88.6875</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43">
+        <v>10378</v>
+      </c>
+      <c r="J43">
+        <v>7750</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1882,8 +2145,14 @@
       <c r="H44">
         <v>-86.924199999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <v>13207</v>
+      </c>
+      <c r="J44">
+        <v>7606</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1909,8 +2178,14 @@
       <c r="H45">
         <v>-84.578000000000003</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <v>10681</v>
+      </c>
+      <c r="J45">
+        <v>6648</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1936,8 +2211,14 @@
       <c r="H46">
         <v>-85.578400000000002</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <v>12102</v>
+      </c>
+      <c r="J46">
+        <v>5838</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1963,8 +2244,14 @@
       <c r="H47">
         <v>-84.8904</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47">
+        <v>12135</v>
+      </c>
+      <c r="J47">
+        <v>9662</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1990,8 +2277,14 @@
       <c r="H48">
         <v>-84.847800000000007</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <v>10861</v>
+      </c>
+      <c r="J48">
+        <v>5199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -2017,8 +2310,14 @@
       <c r="H49">
         <v>-83.019000000000005</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <v>12731</v>
+      </c>
+      <c r="J49">
+        <v>5490</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -2044,8 +2343,14 @@
       <c r="H50">
         <v>-86.25</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50">
+        <v>10207</v>
+      </c>
+      <c r="J50">
+        <v>6802</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2071,8 +2376,14 @@
       <c r="H51">
         <v>-83.627700000000004</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <v>10686</v>
+      </c>
+      <c r="J51">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -2098,8 +2409,14 @@
       <c r="H52">
         <v>-86.267600000000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <v>8892</v>
+      </c>
+      <c r="J52">
+        <v>4944</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -2125,8 +2442,14 @@
       <c r="H53">
         <v>-85.125900000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <v>9841</v>
+      </c>
+      <c r="J53">
+        <v>6939</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -2152,8 +2475,14 @@
       <c r="H54">
         <v>-84.499899999999997</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <v>10186</v>
+      </c>
+      <c r="J54">
+        <v>5437</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2179,8 +2508,14 @@
       <c r="H55">
         <v>-84.388300000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55">
+        <v>9893</v>
+      </c>
+      <c r="J55">
+        <v>4524</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -2206,8 +2541,14 @@
       <c r="H56">
         <v>-87.8703</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56">
+        <v>9617</v>
+      </c>
+      <c r="J56">
+        <v>4744</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2233,8 +2574,14 @@
       <c r="H57">
         <v>-84.599000000000004</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57">
+        <v>9779</v>
+      </c>
+      <c r="J57">
+        <v>4743</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2260,8 +2607,14 @@
       <c r="H58">
         <v>-86.056799999999996</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58">
+        <v>8321</v>
+      </c>
+      <c r="J58">
+        <v>6107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -2287,8 +2640,14 @@
       <c r="H59">
         <v>-83.635900000000007</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59">
+        <v>9759</v>
+      </c>
+      <c r="J59">
+        <v>5373</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2314,8 +2673,14 @@
       <c r="H60">
         <v>-85.140199999999993</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60">
+        <v>9748</v>
+      </c>
+      <c r="J60">
+        <v>5960</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2341,8 +2706,14 @@
       <c r="H61">
         <v>-84.611599999999996</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61">
+        <v>9670</v>
+      </c>
+      <c r="J61">
+        <v>5166</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2368,8 +2739,14 @@
       <c r="H62">
         <v>-85.325199999999995</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62">
+        <v>8928</v>
+      </c>
+      <c r="J62">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -2395,8 +2772,14 @@
       <c r="H63">
         <v>-85.811999999999998</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63">
+        <v>7916</v>
+      </c>
+      <c r="J63">
+        <v>8795</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -2422,8 +2805,14 @@
       <c r="H64">
         <v>-87.556600000000003</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64">
+        <v>8117</v>
+      </c>
+      <c r="J64">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -2449,8 +2838,14 @@
       <c r="H65">
         <v>-84.126400000000004</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65">
+        <v>8253</v>
+      </c>
+      <c r="J65">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -2476,8 +2871,14 @@
       <c r="H66">
         <v>-85.090199999999996</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66">
+        <v>7436</v>
+      </c>
+      <c r="J66">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -2503,8 +2904,14 @@
       <c r="H67">
         <v>-86.015500000000003</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67">
+        <v>6601</v>
+      </c>
+      <c r="J67">
+        <v>5480</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -2530,8 +2937,14 @@
       <c r="H68">
         <v>-85.094700000000003</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68">
+        <v>6648</v>
+      </c>
+      <c r="J68">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -2557,8 +2970,14 @@
       <c r="H69">
         <v>-83.895200000000003</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69">
+        <v>5928</v>
+      </c>
+      <c r="J69">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -2584,8 +3003,14 @@
       <c r="H70">
         <v>-89.694400000000002</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70">
+        <v>4600</v>
+      </c>
+      <c r="J70">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -2611,8 +3036,14 @@
       <c r="H71">
         <v>-84.610299999999995</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71">
+        <v>5087</v>
+      </c>
+      <c r="J71">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -2638,8 +3069,14 @@
       <c r="H72">
         <v>-83.918000000000006</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72">
+        <v>5342</v>
+      </c>
+      <c r="J72">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -2665,8 +3102,14 @@
       <c r="H73">
         <v>-85.801599999999993</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73">
+        <v>3946</v>
+      </c>
+      <c r="J73">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -2692,8 +3135,14 @@
       <c r="H74">
         <v>-88.530500000000004</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74">
+        <v>4216</v>
+      </c>
+      <c r="J74">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -2719,8 +3168,14 @@
       <c r="H75">
         <v>-85.086699999999993</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75">
+        <v>4304</v>
+      </c>
+      <c r="J75">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -2746,8 +3201,14 @@
       <c r="H76">
         <v>-83.593699999999998</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76">
+        <v>4848</v>
+      </c>
+      <c r="J76">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -2773,8 +3234,14 @@
       <c r="H77">
         <v>-84.127200000000002</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77">
+        <v>4171</v>
+      </c>
+      <c r="J77">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -2800,8 +3267,14 @@
       <c r="H78">
         <v>-86.603999999999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78">
+        <v>3014</v>
+      </c>
+      <c r="J78">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -2827,8 +3300,14 @@
       <c r="H79">
         <v>-84.129800000000003</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79">
+        <v>3466</v>
+      </c>
+      <c r="J79">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -2854,8 +3333,14 @@
       <c r="H80">
         <v>-88.365200000000002</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80">
+        <v>2512</v>
+      </c>
+      <c r="J80">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -2881,8 +3366,14 @@
       <c r="H81">
         <v>-86.199600000000004</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81">
+        <v>3090</v>
+      </c>
+      <c r="J81">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -2908,8 +3399,14 @@
       <c r="H82">
         <v>-85.544399999999996</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82">
+        <v>2109</v>
+      </c>
+      <c r="J82">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -2935,8 +3432,14 @@
       <c r="H83">
         <v>-89.314800000000005</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83">
+        <v>2358</v>
+      </c>
+      <c r="J83">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -2961,6 +3464,12 @@
       </c>
       <c r="H84">
         <v>-88.434600000000003</v>
+      </c>
+      <c r="I84">
+        <v>862</v>
+      </c>
+      <c r="J84">
+        <v>672</v>
       </c>
     </row>
   </sheetData>
